--- a/Dados/02-jul.xlsx
+++ b/Dados/02-jul.xlsx
@@ -4793,7 +4793,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B341" t="n">
